--- a/NJ/Mass_onlyrS+T/signbased_all.xlsx
+++ b/NJ/Mass_onlyrS+T/signbased_all.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="signbased_all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -531,8 +531,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,7 +879,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1149,26 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11">
+        <f>N3+N5+N6</f>
+        <v>87.125</v>
+      </c>
+      <c r="D11">
+        <f>N5+N9+N11+N7</f>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>N5+N9+N11+N8</f>
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f>N10+N11+N9+N5</f>
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f>N4+N6+N5</f>
+        <v>103.875</v>
+      </c>
       <c r="J11" t="s">
         <v>9</v>
       </c>
@@ -1165,6 +1186,22 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <f>N3+N6+N9+N11+N7</f>
+        <v>83.625</v>
+      </c>
+      <c r="E12">
+        <f>N3+N6+N9+N11+N8</f>
+        <v>85.625</v>
+      </c>
+      <c r="F12">
+        <f>N3+N6+N9+N10</f>
+        <v>88.625</v>
+      </c>
+      <c r="G12">
+        <f>N4+N3</f>
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1173,6 +1210,18 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <f>N8+N7</f>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f>N7+N11+N10</f>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f>N7+N11+N9+N4+N6</f>
+        <v>100.375</v>
+      </c>
       <c r="M13" t="s">
         <v>10</v>
       </c>
@@ -1188,6 +1237,14 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <f>N8+N11+N10</f>
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f>N8+N11+N9+N6+N4</f>
+        <v>102.375</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1196,6 +1253,10 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <f>N10+N9+N6+N4</f>
+        <v>105.375</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1234,23 +1295,23 @@
       </c>
       <c r="C20">
         <f>C2-C11</f>
-        <v>86</v>
+        <v>-1.125</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20:G21" si="0">D2-D11</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,19 +1323,19 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>0.375</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:G21" si="1">E3-E12</f>
-        <v>86</v>
+        <v>0.375</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>0.375</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,15 +1347,15 @@
       </c>
       <c r="E22">
         <f t="shared" ref="E22:G22" si="2">E4-E13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,11 +1367,11 @@
       </c>
       <c r="F23">
         <f t="shared" ref="F23:G23" si="3">F5-F14</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,7 +1383,7 @@
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="4">G6-G15</f>
-        <v>105</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
